--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>135.7046583333333</v>
+        <v>292.391276</v>
       </c>
       <c r="H2">
-        <v>407.113975</v>
+        <v>877.173828</v>
       </c>
       <c r="I2">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912879</v>
       </c>
       <c r="J2">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912878</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3400946666666667</v>
+        <v>0.5532856666666667</v>
       </c>
       <c r="N2">
-        <v>1.020284</v>
+        <v>1.659857</v>
       </c>
       <c r="O2">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="P2">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="Q2">
-        <v>46.15243054098889</v>
+        <v>161.7759020691773</v>
       </c>
       <c r="R2">
-        <v>415.3718748689</v>
+        <v>1455.983118622596</v>
       </c>
       <c r="S2">
-        <v>0.1109090288905367</v>
+        <v>0.182330136826679</v>
       </c>
       <c r="T2">
-        <v>0.1109090288905367</v>
+        <v>0.182330136826679</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>135.7046583333333</v>
+        <v>292.391276</v>
       </c>
       <c r="H3">
-        <v>407.113975</v>
+        <v>877.173828</v>
       </c>
       <c r="I3">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912879</v>
       </c>
       <c r="J3">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912878</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5497379999999999</v>
+        <v>0.8264293333333333</v>
       </c>
       <c r="N3">
-        <v>1.649214</v>
+        <v>2.479288</v>
       </c>
       <c r="O3">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="P3">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="Q3">
-        <v>74.60200746284998</v>
+        <v>241.6407272971627</v>
       </c>
       <c r="R3">
-        <v>671.41806716565</v>
+        <v>2174.766545674464</v>
       </c>
       <c r="S3">
-        <v>0.1792762830473452</v>
+        <v>0.2723420874646089</v>
       </c>
       <c r="T3">
-        <v>0.1792762830473452</v>
+        <v>0.2723420874646089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,43 +664,43 @@
         <v>226.082006</v>
       </c>
       <c r="H4">
-        <v>678.2460179999999</v>
+        <v>678.246018</v>
       </c>
       <c r="I4">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="J4">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3400946666666667</v>
+        <v>0.5532856666666667</v>
       </c>
       <c r="N4">
-        <v>1.020284</v>
+        <v>1.659857</v>
       </c>
       <c r="O4">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="P4">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="Q4">
-        <v>76.88928446990133</v>
+        <v>125.0879334110473</v>
       </c>
       <c r="R4">
-        <v>692.0035602291119</v>
+        <v>1125.791400699426</v>
       </c>
       <c r="S4">
-        <v>0.1847728445216194</v>
+        <v>0.1409808242296192</v>
       </c>
       <c r="T4">
-        <v>0.1847728445216194</v>
+        <v>0.1409808242296192</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,43 +726,43 @@
         <v>226.082006</v>
       </c>
       <c r="H5">
-        <v>678.2460179999999</v>
+        <v>678.246018</v>
       </c>
       <c r="I5">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="J5">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5497379999999999</v>
+        <v>0.8264293333333333</v>
       </c>
       <c r="N5">
-        <v>1.649214</v>
+        <v>2.479288</v>
       </c>
       <c r="O5">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="P5">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="Q5">
-        <v>124.285869814428</v>
+        <v>186.8408014972427</v>
       </c>
       <c r="R5">
-        <v>1118.572828329852</v>
+        <v>1681.567213475184</v>
       </c>
       <c r="S5">
-        <v>0.2986717051378617</v>
+        <v>0.2105796256801664</v>
       </c>
       <c r="T5">
-        <v>0.2986717051378617</v>
+        <v>0.2105796256801664</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>105.7015583333334</v>
+        <v>124.299764</v>
       </c>
       <c r="H6">
-        <v>317.104675</v>
+        <v>372.899292</v>
       </c>
       <c r="I6">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="J6">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3400946666666667</v>
+        <v>0.5532856666666667</v>
       </c>
       <c r="N6">
-        <v>1.020284</v>
+        <v>1.659857</v>
       </c>
       <c r="O6">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="P6">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="Q6">
-        <v>35.94853624752223</v>
+        <v>68.77327779124933</v>
       </c>
       <c r="R6">
-        <v>323.5368262277</v>
+        <v>618.9595001212441</v>
       </c>
       <c r="S6">
-        <v>0.08638802330698488</v>
+        <v>0.07751118052388098</v>
       </c>
       <c r="T6">
-        <v>0.08638802330698488</v>
+        <v>0.07751118052388098</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>105.7015583333334</v>
+        <v>124.299764</v>
       </c>
       <c r="H7">
-        <v>317.104675</v>
+        <v>372.899292</v>
       </c>
       <c r="I7">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="J7">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5497379999999999</v>
+        <v>0.8264293333333333</v>
       </c>
       <c r="N7">
-        <v>1.649214</v>
+        <v>2.479288</v>
       </c>
       <c r="O7">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="P7">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="Q7">
-        <v>58.10816327505</v>
+        <v>102.7249710960107</v>
       </c>
       <c r="R7">
-        <v>522.9734694754501</v>
+        <v>924.524739864096</v>
       </c>
       <c r="S7">
-        <v>0.1396398821016558</v>
+        <v>0.1157765637272921</v>
       </c>
       <c r="T7">
-        <v>0.1396398821016558</v>
+        <v>0.1157765637272921</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1600446666666666</v>
+        <v>0.30841</v>
       </c>
       <c r="H8">
-        <v>0.4801339999999999</v>
+        <v>0.92523</v>
       </c>
       <c r="I8">
-        <v>0.0003422329939962954</v>
+        <v>0.0004795815477534156</v>
       </c>
       <c r="J8">
-        <v>0.0003422329939962955</v>
+        <v>0.0004795815477534155</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3400946666666667</v>
+        <v>0.5532856666666667</v>
       </c>
       <c r="N8">
-        <v>1.020284</v>
+        <v>1.659857</v>
       </c>
       <c r="O8">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="P8">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="Q8">
-        <v>0.05443033756177777</v>
+        <v>0.1706388324566667</v>
       </c>
       <c r="R8">
-        <v>0.4898730380559999</v>
+        <v>1.53574949211</v>
       </c>
       <c r="S8">
-        <v>0.0001308016893238041</v>
+        <v>0.0001923191357416425</v>
       </c>
       <c r="T8">
-        <v>0.0001308016893238041</v>
+        <v>0.0001923191357416425</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1600446666666666</v>
+        <v>0.30841</v>
       </c>
       <c r="H9">
-        <v>0.4801339999999999</v>
+        <v>0.92523</v>
       </c>
       <c r="I9">
-        <v>0.0003422329939962954</v>
+        <v>0.0004795815477534156</v>
       </c>
       <c r="J9">
-        <v>0.0003422329939962955</v>
+        <v>0.0004795815477534155</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5497379999999999</v>
+        <v>0.8264293333333333</v>
       </c>
       <c r="N9">
-        <v>1.649214</v>
+        <v>2.479288</v>
       </c>
       <c r="O9">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="P9">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="Q9">
-        <v>0.08798263496399998</v>
+        <v>0.2548790706933334</v>
       </c>
       <c r="R9">
-        <v>0.7918437146759999</v>
+        <v>2.29391163624</v>
       </c>
       <c r="S9">
-        <v>0.0002114313046724914</v>
+        <v>0.000287262412011773</v>
       </c>
       <c r="T9">
-        <v>0.0002114313046724914</v>
+        <v>0.0002872624120117729</v>
       </c>
     </row>
   </sheetData>
